--- a/results/Dairy.xlsx
+++ b/results/Dairy.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Dairy.DI01" r:id="rId3" sheetId="1"/>
     <sheet name="DDBHM3a" r:id="rId4" sheetId="2"/>
+    <sheet name="Dairy_SMS5" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>PROV</t>
   </si>
@@ -61,6 +62,18 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>&lt;6 months</t>
+  </si>
+  <si>
+    <t>6-12 months</t>
+  </si>
+  <si>
+    <t>1-2 Years</t>
   </si>
 </sst>
 </file>
@@ -399,4 +412,129 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/results/Dairy.xlsx
+++ b/results/Dairy.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Dairy.DI01" r:id="rId3" sheetId="1"/>
     <sheet name="DDBHM3a" r:id="rId4" sheetId="2"/>
     <sheet name="Dairy_SMS5" r:id="rId5" sheetId="3"/>
+    <sheet name="Dairy_LMS2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>PROV</t>
   </si>
@@ -74,6 +75,27 @@
   </si>
   <si>
     <t>1-2 Years</t>
+  </si>
+  <si>
+    <t>Multi-Cell Below Ground Pit</t>
+  </si>
+  <si>
+    <t>Earthen Lagoon</t>
+  </si>
+  <si>
+    <t>Other Below-Ground Tank</t>
+  </si>
+  <si>
+    <t>Above-Ground Tank Outside</t>
+  </si>
+  <si>
+    <t>Pit ot Tank Below Floor in Building</t>
+  </si>
+  <si>
+    <t>Partial Below Ground Tank Outside</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -537,4 +559,225 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/results/Dairy.xlsx
+++ b/results/Dairy.xlsx
@@ -10,12 +10,13 @@
     <sheet name="DDBHM3a" r:id="rId4" sheetId="2"/>
     <sheet name="Dairy_SMS5" r:id="rId5" sheetId="3"/>
     <sheet name="Dairy_LMS2" r:id="rId6" sheetId="4"/>
+    <sheet name="Dairy_LMS8" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>PROV</t>
   </si>
@@ -96,6 +97,21 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>No Cover</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Structure with Roof</t>
+  </si>
+  <si>
+    <t>Straw</t>
+  </si>
+  <si>
+    <t>Floating Cover in Contact with Manure</t>
   </si>
 </sst>
 </file>
@@ -780,4 +796,201 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/results/Dairy.xlsx
+++ b/results/Dairy.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Dairy_SMS5" r:id="rId5" sheetId="3"/>
     <sheet name="Dairy_LMS2" r:id="rId6" sheetId="4"/>
     <sheet name="Dairy_LMS8" r:id="rId7" sheetId="5"/>
+    <sheet name="Dairy_LMS9" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>PROV</t>
   </si>
@@ -112,6 +113,27 @@
   </si>
   <si>
     <t>Floating Cover in Contact with Manure</t>
+  </si>
+  <si>
+    <t>LMS9a</t>
+  </si>
+  <si>
+    <t>LMS9b</t>
+  </si>
+  <si>
+    <t>LMS9c</t>
+  </si>
+  <si>
+    <t>LMS9d</t>
+  </si>
+  <si>
+    <t>LMS9e</t>
+  </si>
+  <si>
+    <t>LMS9f</t>
+  </si>
+  <si>
+    <t>LMS9g</t>
   </si>
 </sst>
 </file>
@@ -993,4 +1015,225 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/results/Dairy.xlsx
+++ b/results/Dairy.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Dairy_LMS2" r:id="rId6" sheetId="4"/>
     <sheet name="Dairy_LMS8" r:id="rId7" sheetId="5"/>
     <sheet name="Dairy_LMS9" r:id="rId8" sheetId="6"/>
+    <sheet name="Dairy2022_LMS02" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>PROV</t>
   </si>
@@ -134,6 +135,9 @@
   </si>
   <si>
     <t>LMS9g</t>
+  </si>
+  <si>
+    <t>SK</t>
   </si>
 </sst>
 </file>
@@ -1236,4 +1240,199 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/results/Dairy.xlsx
+++ b/results/Dairy.xlsx
@@ -21,13 +21,14 @@
     <sheet name="Dairy_LMS9" sheetId="6" r:id="rId6"/>
     <sheet name="Dairy2022_LMS02" sheetId="7" r:id="rId7"/>
     <sheet name="Pigs_LMS8" r:id="rId11" sheetId="8"/>
+    <sheet name="Dairy2022_LMS8" r:id="rId12" sheetId="9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
   <si>
     <t>PROV</t>
   </si>
@@ -2026,4 +2027,178 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/results/Dairy.xlsx
+++ b/results/Dairy.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/kelsey_ewen_agr_gc_ca/Documents/Documents/FMS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20426E13-2B1C-471A-919C-842FFD4591C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F3DEB44-8084-49DE-ABC6-7C7B5BF9528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dairy.DI01" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,14 @@
     <sheet name="Dairy_LMS8" sheetId="5" r:id="rId5"/>
     <sheet name="Dairy_LMS9" sheetId="6" r:id="rId6"/>
     <sheet name="Dairy2022_LMS02" sheetId="7" r:id="rId7"/>
-    <sheet name="Pigs_LMS8" r:id="rId11" sheetId="8"/>
-    <sheet name="Dairy2022_LMS8" r:id="rId12" sheetId="9"/>
+    <sheet name="Dairy2022_LMS8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>PROV</t>
   </si>
@@ -148,31 +147,12 @@
   </si>
   <si>
     <t>SK</t>
-  </si>
-  <si>
-    <t>Agitated prior to application</t>
-  </si>
-  <si>
-    <t>Aerated to increase oxygen</t>
-  </si>
-  <si>
-    <t>Mechanically separated coarse solids</t>
-  </si>
-  <si>
-    <t>Mixed with additives</t>
-  </si>
-  <si>
-    <t>Anaerobic biodigester or methane capture</t>
-  </si>
-  <si>
-    <t>No practices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1588,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1783,335 +1763,88 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>261.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>232.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.0</v>
+      <c r="B4">
+        <v>13</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
@@ -2119,8 +1852,8 @@
       <c r="D4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
@@ -2129,58 +1862,58 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>235.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>235</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>225</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="n">
-        <v>14.0</v>
+      <c r="B7">
+        <v>14</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -2188,8 +1921,8 @@
       <c r="D7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E7" t="n">
-        <v>1.0</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="e">
         <v>#N/A</v>
@@ -2199,6 +1932,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>